--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>7.335605744346667</v>
+        <v>8.631337589254443</v>
       </c>
       <c r="R2">
-        <v>66.02045169912</v>
+        <v>77.68203830328999</v>
       </c>
       <c r="S2">
-        <v>0.2221429535307078</v>
+        <v>0.2479468944627465</v>
       </c>
       <c r="T2">
-        <v>0.2221429535307079</v>
+        <v>0.2479468944627465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>3.056572338176</v>
+        <v>3.889773168810666</v>
       </c>
       <c r="R3">
-        <v>27.509151043584</v>
+        <v>35.007958519296</v>
       </c>
       <c r="S3">
-        <v>0.09256168209502809</v>
+        <v>0.1117390169713463</v>
       </c>
       <c r="T3">
-        <v>0.09256168209502813</v>
+        <v>0.1117390169713463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>0.2544461733813334</v>
+        <v>0.8027794935873334</v>
       </c>
       <c r="R4">
-        <v>2.290015560432</v>
+        <v>7.225015442286</v>
       </c>
       <c r="S4">
-        <v>0.007705352010374451</v>
+        <v>0.02306093120736677</v>
       </c>
       <c r="T4">
-        <v>0.007705352010374452</v>
+        <v>0.02306093120736677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>0.2948386354933333</v>
+        <v>0.5210030755268888</v>
       </c>
       <c r="R5">
-        <v>2.65354771944</v>
+        <v>4.689027679742</v>
       </c>
       <c r="S5">
-        <v>0.00892855035917503</v>
+        <v>0.01496652091829376</v>
       </c>
       <c r="T5">
-        <v>0.008928550359175032</v>
+        <v>0.01496652091829376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H6">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I6">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J6">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>0.238446254304</v>
+        <v>0.3946784867462222</v>
       </c>
       <c r="R6">
-        <v>2.146016288736</v>
+        <v>3.552106380716</v>
       </c>
       <c r="S6">
-        <v>0.007220829067898935</v>
+        <v>0.01133767554426462</v>
       </c>
       <c r="T6">
-        <v>0.007220829067898936</v>
+        <v>0.01133767554426462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>4.45758697944</v>
+        <v>4.121471959919999</v>
       </c>
       <c r="R7">
-        <v>40.11828281496</v>
+        <v>37.09324763927999</v>
       </c>
       <c r="S7">
-        <v>0.1349883802024069</v>
+        <v>0.1183948794158708</v>
       </c>
       <c r="T7">
-        <v>0.134988380202407</v>
+        <v>0.1183948794158708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>1.857370411008</v>
@@ -948,10 +948,10 @@
         <v>16.716333699072</v>
       </c>
       <c r="S8">
-        <v>0.05624644552630731</v>
+        <v>0.05335548754920246</v>
       </c>
       <c r="T8">
-        <v>0.05624644552630733</v>
+        <v>0.05335548754920245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>0.154617899184</v>
+        <v>0.383327976528</v>
       </c>
       <c r="R9">
-        <v>1.391561092656</v>
+        <v>3.449951788752</v>
       </c>
       <c r="S9">
-        <v>0.004682268648354964</v>
+        <v>0.011011616723129</v>
       </c>
       <c r="T9">
-        <v>0.004682268648354965</v>
+        <v>0.011011616723129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.023056</v>
       </c>
       <c r="I10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>0.17916296328</v>
+        <v>0.248779467216</v>
       </c>
       <c r="R10">
-        <v>1.61246666952</v>
+        <v>2.239015204944</v>
       </c>
       <c r="S10">
-        <v>0.005425562825129399</v>
+        <v>0.007146528062938621</v>
       </c>
       <c r="T10">
-        <v>0.005425562825129401</v>
+        <v>0.00714652806293862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>2.023056</v>
       </c>
       <c r="I11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>0.144895316832</v>
+        <v>0.188459355168</v>
       </c>
       <c r="R11">
-        <v>1.304057851488</v>
+        <v>1.696134196512</v>
       </c>
       <c r="S11">
-        <v>0.00438784127113621</v>
+        <v>0.005413750923672726</v>
       </c>
       <c r="T11">
-        <v>0.004387841271136211</v>
+        <v>0.005413750923672724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>2.321895648152222</v>
+        <v>5.749214781303332</v>
       </c>
       <c r="R12">
-        <v>20.89706083337</v>
+        <v>51.74293303172999</v>
       </c>
       <c r="S12">
-        <v>0.07031358759542633</v>
+        <v>0.1651540025960926</v>
       </c>
       <c r="T12">
-        <v>0.07031358759542633</v>
+        <v>0.1651540025960925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H13">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I13">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J13">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.9674786592426666</v>
+        <v>2.590924195328</v>
       </c>
       <c r="R13">
-        <v>8.707307933184</v>
+        <v>23.318317757952</v>
       </c>
       <c r="S13">
-        <v>0.02929799860191867</v>
+        <v>0.07442781624249484</v>
       </c>
       <c r="T13">
-        <v>0.02929799860191868</v>
+        <v>0.07442781624249481</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H14">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I14">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J14">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.08053833360911111</v>
+        <v>0.534720335398</v>
       </c>
       <c r="R14">
-        <v>0.724845002482</v>
+        <v>4.812483018581999</v>
       </c>
       <c r="S14">
-        <v>0.002438929234188669</v>
+        <v>0.01536056783748908</v>
       </c>
       <c r="T14">
-        <v>0.002438929234188669</v>
+        <v>0.01536056783748907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H15">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I15">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J15">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.09332351935444444</v>
+        <v>0.3470329542726667</v>
       </c>
       <c r="R15">
-        <v>0.83991167419</v>
+        <v>3.123296588454</v>
       </c>
       <c r="S15">
-        <v>0.002826100930963112</v>
+        <v>0.00996899291660917</v>
       </c>
       <c r="T15">
-        <v>0.002826100930963112</v>
+        <v>0.009968992916609168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H16">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I16">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J16">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.075473974404</v>
+        <v>0.2628898900546667</v>
       </c>
       <c r="R16">
-        <v>0.679265769636</v>
+        <v>2.366009010492</v>
       </c>
       <c r="S16">
-        <v>0.002285566069540565</v>
+        <v>0.007551869122331227</v>
       </c>
       <c r="T16">
-        <v>0.002285566069540566</v>
+        <v>0.007551869122331224</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H17">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>7.552029593158333</v>
+        <v>0.3573561572005555</v>
       </c>
       <c r="R17">
-        <v>67.968266338425</v>
+        <v>3.216205414805</v>
       </c>
       <c r="S17">
-        <v>0.2286968816812983</v>
+        <v>0.01026554094064491</v>
       </c>
       <c r="T17">
-        <v>0.2286968816812983</v>
+        <v>0.0102655409406449</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H18">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>3.14675100544</v>
+        <v>0.1610450729813333</v>
       </c>
       <c r="R18">
-        <v>28.32075904896</v>
+        <v>1.449405656832</v>
       </c>
       <c r="S18">
-        <v>0.09529254798254208</v>
+        <v>0.004626238436550029</v>
       </c>
       <c r="T18">
-        <v>0.09529254798254209</v>
+        <v>0.004626238436550028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H19">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.2619531499116667</v>
+        <v>0.03323681780966667</v>
       </c>
       <c r="R19">
-        <v>2.357578349205</v>
+        <v>0.299131360287</v>
       </c>
       <c r="S19">
-        <v>0.007932684557494931</v>
+        <v>0.0009547727304734926</v>
       </c>
       <c r="T19">
-        <v>0.007932684557494931</v>
+        <v>0.0009547727304734922</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H20">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.3035373189416666</v>
+        <v>0.02157066098211111</v>
       </c>
       <c r="R20">
-        <v>2.731835870475</v>
+        <v>0.194135948839</v>
       </c>
       <c r="S20">
-        <v>0.009191971172722795</v>
+        <v>0.0006196465318054105</v>
       </c>
       <c r="T20">
-        <v>0.009191971172722796</v>
+        <v>0.0006196465318054104</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.175411</v>
+      </c>
+      <c r="I21">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J21">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2794673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.838402</v>
+      </c>
+      <c r="O21">
+        <v>0.02771701929690382</v>
+      </c>
+      <c r="P21">
+        <v>0.02771701929690381</v>
+      </c>
+      <c r="Q21">
+        <v>0.01634054813577778</v>
+      </c>
+      <c r="R21">
+        <v>0.147064933222</v>
+      </c>
+      <c r="S21">
+        <v>0.0004694044372831779</v>
+      </c>
+      <c r="T21">
+        <v>0.0004694044372831777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.100258</v>
+      </c>
+      <c r="I22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.111751666666666</v>
+      </c>
+      <c r="N22">
+        <v>18.335255</v>
+      </c>
+      <c r="O22">
+        <v>0.6061514841909396</v>
+      </c>
+      <c r="P22">
+        <v>0.6061514841909394</v>
+      </c>
+      <c r="Q22">
+        <v>2.241501221754444</v>
+      </c>
+      <c r="R22">
+        <v>20.17351099579</v>
+      </c>
+      <c r="S22">
+        <v>0.06439016677558468</v>
+      </c>
+      <c r="T22">
+        <v>0.06439016677558465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.100258</v>
+      </c>
+      <c r="I23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2731664420559804</v>
+      </c>
+      <c r="P23">
+        <v>0.2731664420559804</v>
+      </c>
+      <c r="Q23">
+        <v>1.010148336810667</v>
+      </c>
+      <c r="R23">
+        <v>9.091335031296</v>
+      </c>
+      <c r="S23">
+        <v>0.02901788285638678</v>
+      </c>
+      <c r="T23">
+        <v>0.02901788285638677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.100258</v>
+      </c>
+      <c r="I24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.568439</v>
+      </c>
+      <c r="N24">
+        <v>1.705317</v>
+      </c>
+      <c r="O24">
+        <v>0.0563766596410053</v>
+      </c>
+      <c r="P24">
+        <v>0.05637665964100529</v>
+      </c>
+      <c r="Q24">
+        <v>0.2084765190873333</v>
+      </c>
+      <c r="R24">
+        <v>1.876288671786</v>
+      </c>
+      <c r="S24">
+        <v>0.005988771142546955</v>
+      </c>
+      <c r="T24">
+        <v>0.005988771142546952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.142485</v>
-      </c>
-      <c r="H21">
-        <v>3.427455</v>
-      </c>
-      <c r="I21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.214866</v>
-      </c>
-      <c r="N21">
-        <v>0.644598</v>
-      </c>
-      <c r="O21">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="P21">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="Q21">
-        <v>0.24548118201</v>
-      </c>
-      <c r="R21">
-        <v>2.20933063809</v>
-      </c>
-      <c r="S21">
-        <v>0.007433866637385302</v>
-      </c>
-      <c r="T21">
-        <v>0.007433866637385302</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.100258</v>
+      </c>
+      <c r="I25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3689163333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.106749</v>
+      </c>
+      <c r="O25">
+        <v>0.036588394815171</v>
+      </c>
+      <c r="P25">
+        <v>0.036588394815171</v>
+      </c>
+      <c r="Q25">
+        <v>0.1353010490268889</v>
+      </c>
+      <c r="R25">
+        <v>1.217709441242</v>
+      </c>
+      <c r="S25">
+        <v>0.00388670638552404</v>
+      </c>
+      <c r="T25">
+        <v>0.003886706385524039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.100258</v>
+      </c>
+      <c r="I26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2794673333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.838402</v>
+      </c>
+      <c r="O26">
+        <v>0.02771701929690382</v>
+      </c>
+      <c r="P26">
+        <v>0.02771701929690381</v>
+      </c>
+      <c r="Q26">
+        <v>0.1024953897462222</v>
+      </c>
+      <c r="R26">
+        <v>0.9224585077159999</v>
+      </c>
+      <c r="S26">
+        <v>0.002944319269352063</v>
+      </c>
+      <c r="T26">
+        <v>0.002944319269352061</v>
       </c>
     </row>
   </sheetData>
